--- a/TestCases/TestCases.xlsx
+++ b/TestCases/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="RunManager" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Browser</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -90,12 +102,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,8 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,9 +412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -403,16 +425,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -420,8 +442,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -431,6 +453,26 @@
       </c>
       <c r="D2" t="s">
         <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -442,13 +484,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -492,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/TestCases/TestCases.xlsx
+++ b/TestCases/TestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Browser</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -116,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,14 +124,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,65 +431,64 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestCases/TestCases.xlsx
+++ b/TestCases/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RunManager" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Browser</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>TC_Login</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
@@ -87,6 +84,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>TC_Login1</t>
+  </si>
+  <si>
+    <t>TC_Login2</t>
   </si>
 </sst>
 </file>
@@ -430,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +446,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -460,33 +463,33 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -497,15 +500,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -513,34 +516,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -563,16 +571,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/TestCases/TestCases.xlsx
+++ b/TestCases/TestCases.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestCases/TestCases.xlsx
+++ b/TestCases/TestCases.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Browser</t>
   </si>
@@ -434,7 +434,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B28"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +466,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -483,7 +483,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,6 +549,15 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
